--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -49,142 +52,190 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>today</t>
+    <t>essential</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>shop</t>
   </si>
   <si>
     <t>toilet</t>
@@ -196,12 +247,6 @@
     <t>consumer</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -211,19 +256,25 @@
     <t>corona</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>paper</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>people</t>
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -584,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6575342465753424</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3466666666666667</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,31 +772,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8717948717948718</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2577519379844961</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C5">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,31 +822,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,49 +854,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009916699722332408</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>611</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2496</v>
+        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8623853211009175</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,25 +904,25 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8582677165354331</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,22 +930,22 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,25 +956,25 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7848101265822784</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,25 +982,25 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.73</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L10">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +1008,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7112676056338029</v>
+        <v>0.7875</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,25 +1034,25 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7017543859649122</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1009,25 +1060,25 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6813186813186813</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6810344827586207</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1061,13 +1112,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6349206349206349</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1087,25 +1138,25 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.5957446808510638</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L16">
+        <v>66</v>
+      </c>
+      <c r="M16">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>28</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1113,25 +1164,25 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.5920245398773006</v>
+        <v>0.6830985915492958</v>
       </c>
       <c r="L17">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1139,25 +1190,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5695538057742782</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L18">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="M18">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>164</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1165,25 +1216,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5441176470588235</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1191,25 +1242,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5416666666666666</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L20">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="M20">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1217,25 +1268,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.4886363636363636</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1243,25 +1294,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4126984126984127</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1269,25 +1320,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4113924050632912</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1295,25 +1346,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.3679245283018868</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1321,25 +1372,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.3333333333333333</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1347,25 +1398,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3268292682926829</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L26">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>276</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1373,13 +1424,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3217391304347826</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1399,25 +1450,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3052631578947368</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1425,25 +1476,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.2903225806451613</v>
+        <v>0.390625</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N29">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1451,25 +1502,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.267515923566879</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1477,25 +1528,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.25</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1503,25 +1554,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.25</v>
+        <v>0.3627906976744186</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1529,25 +1580,25 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.25</v>
+        <v>0.3516746411483254</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>102</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1555,25 +1606,25 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.2454545454545455</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1581,25 +1632,25 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.2405660377358491</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1607,25 +1658,25 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.2293388429752066</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L36">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>373</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1633,13 +1684,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.2237762237762238</v>
+        <v>0.3129770992366412</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1651,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1659,25 +1710,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.2219512195121951</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>319</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1685,25 +1736,25 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.219672131147541</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="L39">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>238</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1711,25 +1762,25 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.2149532710280374</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="L40">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>252</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1737,25 +1788,25 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.2130777903043968</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="L41">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>698</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1763,13 +1814,13 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2108843537414966</v>
+        <v>0.2767295597484277</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1781,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1789,25 +1840,25 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2020089285714286</v>
+        <v>0.2761194029850746</v>
       </c>
       <c r="L43">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>715</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1815,25 +1866,25 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2011661807580175</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="L44">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>274</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1841,13 +1892,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.191304347826087</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1859,99 +1910,99 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>186</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.1901362751460091</v>
+        <v>0.2451923076923077</v>
       </c>
       <c r="L46">
-        <v>586</v>
+        <v>102</v>
       </c>
       <c r="M46">
-        <v>611</v>
+        <v>102</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2496</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.1816894761680038</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="L47">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1734</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.1787610619469027</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L48">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>464</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1757575757575758</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1963,319 +2014,735 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1625386996904025</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L50">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>541</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1584699453551913</v>
+        <v>0.2320916905444126</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1574468085106383</v>
+        <v>0.2242798353909465</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>198</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1541353383458647</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>225</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1403712296983759</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="L54">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="M54">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>741</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1130598183526464</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L55">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>369</v>
+        <v>25</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2832</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1106194690265487</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.09508196721311475</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>276</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.09169550173010381</v>
+        <v>0.2079510703363914</v>
       </c>
       <c r="L58">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="M58">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1050</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.06983240223463687</v>
+        <v>0.2008407286314806</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>432</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>333</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.06111111111111111</v>
+        <v>0.1996136509980682</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>620</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>621</v>
       </c>
       <c r="N60">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>507</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.04821802935010482</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="L61">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N61">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>908</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62">
+        <v>0.1897891231964484</v>
+      </c>
+      <c r="L62">
+        <v>171</v>
+      </c>
+      <c r="M62">
+        <v>171</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63">
+        <v>0.1837837837837838</v>
+      </c>
+      <c r="L63">
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64">
+        <v>0.1781305114638448</v>
+      </c>
+      <c r="L64">
+        <v>101</v>
+      </c>
+      <c r="M64">
+        <v>101</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K65">
+        <v>0.1696969696969697</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>28</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66">
+        <v>0.1676923076923077</v>
+      </c>
+      <c r="L66">
+        <v>109</v>
+      </c>
+      <c r="M66">
+        <v>109</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67">
+        <v>0.1610486891385768</v>
+      </c>
+      <c r="L67">
+        <v>43</v>
+      </c>
+      <c r="M67">
+        <v>43</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68">
+        <v>0.1430219146482122</v>
+      </c>
+      <c r="L68">
+        <v>124</v>
+      </c>
+      <c r="M68">
+        <v>124</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69">
+        <v>0.1140268666041862</v>
+      </c>
+      <c r="L69">
+        <v>365</v>
+      </c>
+      <c r="M69">
+        <v>365</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K70">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L70">
+        <v>25</v>
+      </c>
+      <c r="M70">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K71">
+        <v>0.1101321585903084</v>
+      </c>
+      <c r="L71">
+        <v>25</v>
+      </c>
+      <c r="M71">
+        <v>25</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K72">
+        <v>0.099644128113879</v>
+      </c>
+      <c r="L72">
+        <v>28</v>
+      </c>
+      <c r="M72">
+        <v>28</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="L73">
+        <v>99</v>
+      </c>
+      <c r="M73">
+        <v>99</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74">
+        <v>0.08496732026143791</v>
+      </c>
+      <c r="L74">
+        <v>26</v>
+      </c>
+      <c r="M74">
+        <v>26</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75">
+        <v>0.07522935779816514</v>
+      </c>
+      <c r="L75">
+        <v>41</v>
+      </c>
+      <c r="M75">
+        <v>41</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="L76">
+        <v>26</v>
+      </c>
+      <c r="M76">
+        <v>26</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77">
+        <v>0.05268595041322314</v>
+      </c>
+      <c r="L77">
+        <v>51</v>
+      </c>
+      <c r="M77">
+        <v>51</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
